--- a/Unity/Assets/Config/Excel/ai.xlsx
+++ b/Unity/Assets/Config/Excel/ai.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>所属ai</t>
   </si>
@@ -71,6 +71,26 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,14 +120,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -208,24 +220,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -504,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -523,10 +541,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
@@ -547,7 +567,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
@@ -568,7 +590,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -588,21 +612,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1">
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1">
         <v>201</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
